--- a/data/pca/factorExposure/factorExposure_2010-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-22.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01389266177307329</v>
+        <v>-0.01703007807667479</v>
       </c>
       <c r="C2">
-        <v>0.009466173552687345</v>
+        <v>0.0009984013471930643</v>
       </c>
       <c r="D2">
-        <v>0.01271063030672308</v>
+        <v>0.008076758166405597</v>
       </c>
       <c r="E2">
-        <v>0.008982292861099406</v>
+        <v>0.0002003767793345051</v>
       </c>
       <c r="F2">
-        <v>0.01680824791970048</v>
+        <v>0.009930504356605023</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1231079541069194</v>
+        <v>-0.09344830858791002</v>
       </c>
       <c r="C4">
-        <v>0.06834791214007969</v>
+        <v>0.01575538895610376</v>
       </c>
       <c r="D4">
-        <v>0.003713633747029265</v>
+        <v>0.08489369019599689</v>
       </c>
       <c r="E4">
-        <v>-0.006340446510336971</v>
+        <v>-0.03081996060739672</v>
       </c>
       <c r="F4">
-        <v>-0.01196791426889286</v>
+        <v>-0.03041056746799663</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1221315110887158</v>
+        <v>-0.1551347866157568</v>
       </c>
       <c r="C6">
-        <v>-0.007911384220817308</v>
+        <v>0.02464911764164624</v>
       </c>
       <c r="D6">
-        <v>0.01818148349417214</v>
+        <v>-0.02249821568455414</v>
       </c>
       <c r="E6">
-        <v>0.02827829716194543</v>
+        <v>-0.009479770404727795</v>
       </c>
       <c r="F6">
-        <v>-0.05043358635842454</v>
+        <v>-0.0495922205478468</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07544072557119579</v>
+        <v>-0.05912094938455435</v>
       </c>
       <c r="C7">
-        <v>0.06198009364416549</v>
+        <v>-0.0009894053675110991</v>
       </c>
       <c r="D7">
-        <v>0.02339643373589075</v>
+        <v>0.05234618328953873</v>
       </c>
       <c r="E7">
-        <v>0.02833535132548512</v>
+        <v>-0.01514083913741422</v>
       </c>
       <c r="F7">
-        <v>0.03605767388203675</v>
+        <v>-0.04828737907123228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0555346234421419</v>
+        <v>-0.05777979022836491</v>
       </c>
       <c r="C8">
-        <v>0.03701869771678195</v>
+        <v>-0.01339051926043558</v>
       </c>
       <c r="D8">
-        <v>0.01533333276023616</v>
+        <v>0.03280375791671815</v>
       </c>
       <c r="E8">
-        <v>-0.00921315651930182</v>
+        <v>-0.01625928409110603</v>
       </c>
       <c r="F8">
-        <v>-0.02489608159695542</v>
+        <v>0.03051588361560673</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0882513542936159</v>
+        <v>-0.071237632716208</v>
       </c>
       <c r="C9">
-        <v>0.05236174760615245</v>
+        <v>0.01174381307919429</v>
       </c>
       <c r="D9">
-        <v>0.01357556552139458</v>
+        <v>0.08429701568465686</v>
       </c>
       <c r="E9">
-        <v>-0.009241619924229406</v>
+        <v>-0.02542336883077953</v>
       </c>
       <c r="F9">
-        <v>0.0180005181825668</v>
+        <v>-0.05188798044354902</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09864707117168722</v>
+        <v>-0.09525398507030469</v>
       </c>
       <c r="C10">
-        <v>-0.1793018435407846</v>
+        <v>0.01794856393153878</v>
       </c>
       <c r="D10">
-        <v>0.007751718744022823</v>
+        <v>-0.1704375515039233</v>
       </c>
       <c r="E10">
-        <v>0.007691876571130406</v>
+        <v>0.03977991603357531</v>
       </c>
       <c r="F10">
-        <v>0.04877847393446742</v>
+        <v>0.05420422760919987</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0827220678495178</v>
+        <v>-0.08727692017078625</v>
       </c>
       <c r="C11">
-        <v>0.05039577403357477</v>
+        <v>0.01136702258755722</v>
       </c>
       <c r="D11">
-        <v>0.02155394697771079</v>
+        <v>0.1147133903209168</v>
       </c>
       <c r="E11">
-        <v>-0.01511844061193785</v>
+        <v>-0.04940531102936346</v>
       </c>
       <c r="F11">
-        <v>-0.0008935318569057987</v>
+        <v>-0.01859187135612579</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08611120650370076</v>
+        <v>-0.0918691442578069</v>
       </c>
       <c r="C12">
-        <v>0.07603193680277934</v>
+        <v>0.008929277637337212</v>
       </c>
       <c r="D12">
-        <v>0.03131165854475008</v>
+        <v>0.1236356410986049</v>
       </c>
       <c r="E12">
-        <v>-0.05780278125861915</v>
+        <v>-0.0486635099747488</v>
       </c>
       <c r="F12">
-        <v>0.02719297605610547</v>
+        <v>-0.01813868591231392</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03448767854401171</v>
+        <v>-0.04294030379835524</v>
       </c>
       <c r="C13">
-        <v>0.02527268838889618</v>
+        <v>0.003993923810628327</v>
       </c>
       <c r="D13">
-        <v>0.009429604535974618</v>
+        <v>0.04663813770937301</v>
       </c>
       <c r="E13">
-        <v>0.02514080063899373</v>
+        <v>0.01204798474347112</v>
       </c>
       <c r="F13">
-        <v>0.01739327171886782</v>
+        <v>-0.01307844647373795</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03052314700030706</v>
+        <v>-0.02232832559256514</v>
       </c>
       <c r="C14">
-        <v>0.005012504865912087</v>
+        <v>0.01423058234429353</v>
       </c>
       <c r="D14">
-        <v>-0.007037187701044491</v>
+        <v>0.03113617264286875</v>
       </c>
       <c r="E14">
-        <v>-0.01910772817604812</v>
+        <v>-0.01884350975805475</v>
       </c>
       <c r="F14">
-        <v>-0.008634341062436112</v>
+        <v>-0.01669681748092277</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01802437196078726</v>
+        <v>-0.03138774528131799</v>
       </c>
       <c r="C15">
-        <v>0.005228324140811007</v>
+        <v>0.005274391679901686</v>
       </c>
       <c r="D15">
-        <v>0.01472355446385719</v>
+        <v>0.04509059085862538</v>
       </c>
       <c r="E15">
-        <v>0.04947374220450238</v>
+        <v>-0.009033555792624125</v>
       </c>
       <c r="F15">
-        <v>0.02344206716449451</v>
+        <v>-0.02919045569838764</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09228409225940597</v>
+        <v>-0.07302604738944644</v>
       </c>
       <c r="C16">
-        <v>0.06266684054314937</v>
+        <v>0.002763131202539975</v>
       </c>
       <c r="D16">
-        <v>0.02435040089689561</v>
+        <v>0.1186375376745096</v>
       </c>
       <c r="E16">
-        <v>-0.03905888200768627</v>
+        <v>-0.06398722807967532</v>
       </c>
       <c r="F16">
-        <v>0.008207572331670816</v>
+        <v>-0.0274851709538931</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02405536734070999</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003833378839435824</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01880214800500465</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.006260792295538037</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01767192129778046</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05008795007611327</v>
+        <v>-0.06039749530481252</v>
       </c>
       <c r="C20">
-        <v>0.03231652300072802</v>
+        <v>0.0004342073860614255</v>
       </c>
       <c r="D20">
-        <v>-0.01870245943426551</v>
+        <v>0.07516031992502802</v>
       </c>
       <c r="E20">
-        <v>0.03483742899063845</v>
+        <v>-0.05626543949522857</v>
       </c>
       <c r="F20">
-        <v>0.01875341989593952</v>
+        <v>-0.02654573521798571</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03157555426890619</v>
+        <v>-0.03880691960586563</v>
       </c>
       <c r="C21">
-        <v>-0.001649409356057373</v>
+        <v>0.006807412572460743</v>
       </c>
       <c r="D21">
-        <v>-0.02678822909359184</v>
+        <v>0.03623173285389417</v>
       </c>
       <c r="E21">
-        <v>-0.01478616902705477</v>
+        <v>0.008199895726960329</v>
       </c>
       <c r="F21">
-        <v>-0.02615029047869238</v>
+        <v>0.02192907897174552</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03125252354797856</v>
+        <v>-0.04336578764282926</v>
       </c>
       <c r="C22">
-        <v>-0.03392734942334337</v>
+        <v>0.00103490858683142</v>
       </c>
       <c r="D22">
-        <v>0.05632056241210032</v>
+        <v>-0.002058947265777044</v>
       </c>
       <c r="E22">
-        <v>0.6031802285702115</v>
+        <v>-0.02753276490215598</v>
       </c>
       <c r="F22">
-        <v>0.1345952634467188</v>
+        <v>0.004094047408791943</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03147538982997784</v>
+        <v>-0.0434183196347911</v>
       </c>
       <c r="C23">
-        <v>-0.03351589809021618</v>
+        <v>0.001056941451805883</v>
       </c>
       <c r="D23">
-        <v>0.05752599407082187</v>
+        <v>-0.001934703989007556</v>
       </c>
       <c r="E23">
-        <v>0.6066228753491941</v>
+        <v>-0.02788762875430742</v>
       </c>
       <c r="F23">
-        <v>0.1335814150511458</v>
+        <v>0.003631459088866874</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09142036114582289</v>
+        <v>-0.07946958664092438</v>
       </c>
       <c r="C24">
-        <v>0.05884618246951426</v>
+        <v>0.003022359216343696</v>
       </c>
       <c r="D24">
-        <v>0.01150411948847676</v>
+        <v>0.1189428676828158</v>
       </c>
       <c r="E24">
-        <v>-0.02831930132320425</v>
+        <v>-0.05197576915852065</v>
       </c>
       <c r="F24">
-        <v>0.01907893995072613</v>
+        <v>-0.02002672425196197</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09568938454061625</v>
+        <v>-0.08463159808249202</v>
       </c>
       <c r="C25">
-        <v>0.05043552272210699</v>
+        <v>0.005119929429679405</v>
       </c>
       <c r="D25">
-        <v>0.02635575653983884</v>
+        <v>0.1073209047012121</v>
       </c>
       <c r="E25">
-        <v>-0.06301179680876542</v>
+        <v>-0.03442195989295787</v>
       </c>
       <c r="F25">
-        <v>0.01635225719233834</v>
+        <v>-0.02768083746727896</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03637017239692467</v>
+        <v>-0.05450777566654256</v>
       </c>
       <c r="C26">
-        <v>-0.02916365726674735</v>
+        <v>0.01474182052719413</v>
       </c>
       <c r="D26">
-        <v>-0.01018386337080493</v>
+        <v>0.03824088513379979</v>
       </c>
       <c r="E26">
-        <v>0.01304204363983441</v>
+        <v>-0.02782863963135028</v>
       </c>
       <c r="F26">
-        <v>-0.02576363720071398</v>
+        <v>0.01263301114936654</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09958119032979398</v>
+        <v>-0.1435555893295065</v>
       </c>
       <c r="C28">
-        <v>-0.3177701741697711</v>
+        <v>0.01678478710580336</v>
       </c>
       <c r="D28">
-        <v>0.04259596543832794</v>
+        <v>-0.2655699302929983</v>
       </c>
       <c r="E28">
-        <v>-0.04573108935359979</v>
+        <v>0.06977013329877885</v>
       </c>
       <c r="F28">
-        <v>-0.01134040646613581</v>
+        <v>-0.02837144018143387</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02920460589260461</v>
+        <v>-0.02712441269053599</v>
       </c>
       <c r="C29">
-        <v>0.004576422073522624</v>
+        <v>0.008556951705483967</v>
       </c>
       <c r="D29">
-        <v>0.001625462753725132</v>
+        <v>0.02999650619398224</v>
       </c>
       <c r="E29">
-        <v>-0.03345755380960538</v>
+        <v>-0.01196660750428117</v>
       </c>
       <c r="F29">
-        <v>0.03152159156002979</v>
+        <v>0.01500320072177203</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.105884431160048</v>
+        <v>-0.06242002534107268</v>
       </c>
       <c r="C30">
-        <v>0.1163585033508951</v>
+        <v>0.004297991758897763</v>
       </c>
       <c r="D30">
-        <v>0.0381658291949382</v>
+        <v>0.08697334568447007</v>
       </c>
       <c r="E30">
-        <v>-0.04235960723981996</v>
+        <v>-0.0248298840093443</v>
       </c>
       <c r="F30">
-        <v>-0.03282735042771505</v>
+        <v>-0.1030568926204396</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03059071283084034</v>
+        <v>-0.04829133546010854</v>
       </c>
       <c r="C31">
-        <v>0.02172331938509037</v>
+        <v>0.01481665565293233</v>
       </c>
       <c r="D31">
-        <v>0.0008274775524973548</v>
+        <v>0.02770537346171973</v>
       </c>
       <c r="E31">
-        <v>0.00677474281515095</v>
+        <v>-0.02716121265009745</v>
       </c>
       <c r="F31">
-        <v>0.009893328629600375</v>
+        <v>0.005001602294524936</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06188112772692373</v>
+        <v>-0.04775651383537662</v>
       </c>
       <c r="C32">
-        <v>0.01809882702347315</v>
+        <v>-0.000428339099924436</v>
       </c>
       <c r="D32">
-        <v>-0.01218695889855614</v>
+        <v>0.03075271656137206</v>
       </c>
       <c r="E32">
-        <v>-0.0717052802688483</v>
+        <v>-0.03073299944596187</v>
       </c>
       <c r="F32">
-        <v>-0.0678388952157167</v>
+        <v>-0.001713430712352583</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09771138353574695</v>
+        <v>-0.08954859624721433</v>
       </c>
       <c r="C33">
-        <v>0.06073987641710172</v>
+        <v>0.008477822227654299</v>
       </c>
       <c r="D33">
-        <v>0.07131429217103347</v>
+        <v>0.09642862460393455</v>
       </c>
       <c r="E33">
-        <v>-0.01513726791263387</v>
+        <v>-0.0479179142822866</v>
       </c>
       <c r="F33">
-        <v>0.01761816196161066</v>
+        <v>-0.03893807545791514</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07821488928355619</v>
+        <v>-0.06734621525972659</v>
       </c>
       <c r="C34">
-        <v>0.05208031102213752</v>
+        <v>0.01190116796366932</v>
       </c>
       <c r="D34">
-        <v>0.02001731054851319</v>
+        <v>0.09852158674923128</v>
       </c>
       <c r="E34">
-        <v>-0.03157711315420473</v>
+        <v>-0.035826650140225</v>
       </c>
       <c r="F34">
-        <v>0.01446526652214298</v>
+        <v>-0.03750259757617674</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01224885463564712</v>
+        <v>-0.02443373494537829</v>
       </c>
       <c r="C35">
-        <v>0.0116521652383756</v>
+        <v>0.002336565987902653</v>
       </c>
       <c r="D35">
-        <v>0.004853821254197899</v>
+        <v>0.01151639421159874</v>
       </c>
       <c r="E35">
-        <v>-0.003606368586547033</v>
+        <v>-0.0109396701295451</v>
       </c>
       <c r="F35">
-        <v>0.01157339024962833</v>
+        <v>-0.008609010939277231</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02845179927129415</v>
+        <v>-0.0245471424694624</v>
       </c>
       <c r="C36">
-        <v>0.006719866929098171</v>
+        <v>0.007353653046836394</v>
       </c>
       <c r="D36">
-        <v>0.00474647201449458</v>
+        <v>0.03677882770691936</v>
       </c>
       <c r="E36">
-        <v>0.006410452336223429</v>
+        <v>-0.01725122484662073</v>
       </c>
       <c r="F36">
-        <v>-0.01606161387207349</v>
+        <v>-0.01425609945903896</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007286934645020352</v>
+        <v>-0.001519049144634795</v>
       </c>
       <c r="C38">
-        <v>0.006263445063125007</v>
+        <v>0.0002421396060487219</v>
       </c>
       <c r="D38">
-        <v>0.005167559870112224</v>
+        <v>0.001000368644187232</v>
       </c>
       <c r="E38">
-        <v>0.02155824420783624</v>
+        <v>-0.001163160553002066</v>
       </c>
       <c r="F38">
-        <v>0.02744538021986373</v>
+        <v>0.001292090980262738</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1325878182119152</v>
+        <v>-0.1076020183029798</v>
       </c>
       <c r="C39">
-        <v>0.1077766324223726</v>
+        <v>0.01654625531705653</v>
       </c>
       <c r="D39">
-        <v>0.04793449488052945</v>
+        <v>0.1553601577575186</v>
       </c>
       <c r="E39">
-        <v>-0.1370798054217065</v>
+        <v>-0.06235287087293195</v>
       </c>
       <c r="F39">
-        <v>0.01849301154616791</v>
+        <v>-0.02312848320345038</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.00588197661889008</v>
+        <v>-0.03705480232094552</v>
       </c>
       <c r="C40">
-        <v>0.02252192945365065</v>
+        <v>0.007217187272873593</v>
       </c>
       <c r="D40">
-        <v>-0.01553896718426073</v>
+        <v>0.0315660513262947</v>
       </c>
       <c r="E40">
-        <v>0.0669833104674932</v>
+        <v>-0.003329363386917643</v>
       </c>
       <c r="F40">
-        <v>0.02870517190175664</v>
+        <v>0.01331822525928603</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02337619798243203</v>
+        <v>-0.0262992103251353</v>
       </c>
       <c r="C41">
-        <v>-0.005331444793938915</v>
+        <v>0.006535811231054503</v>
       </c>
       <c r="D41">
-        <v>-0.005140071124197033</v>
+        <v>0.01149178530500786</v>
       </c>
       <c r="E41">
-        <v>-0.005813939976115174</v>
+        <v>-0.01250400587102849</v>
       </c>
       <c r="F41">
-        <v>0.01522997548592771</v>
+        <v>0.008308924185647012</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0356532883210408</v>
+        <v>-0.04018395814396674</v>
       </c>
       <c r="C43">
-        <v>-0.00030532578794597</v>
+        <v>0.006619645432392499</v>
       </c>
       <c r="D43">
-        <v>0.01715976263451878</v>
+        <v>0.02128868073102289</v>
       </c>
       <c r="E43">
-        <v>-0.002211817939356978</v>
+        <v>-0.02476044847826625</v>
       </c>
       <c r="F43">
-        <v>-0.0002196214685576255</v>
+        <v>0.01329237677489068</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1313758345874569</v>
+        <v>-0.07603270455847735</v>
       </c>
       <c r="C44">
-        <v>0.14018327308217</v>
+        <v>0.02148760126162578</v>
       </c>
       <c r="D44">
-        <v>0.04349430414898287</v>
+        <v>0.094715240342717</v>
       </c>
       <c r="E44">
-        <v>0.1074253825167926</v>
+        <v>-0.07504305827323893</v>
       </c>
       <c r="F44">
-        <v>0.113624764868533</v>
+        <v>-0.1831076516347571</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01798357805994081</v>
+        <v>-0.02255018517209305</v>
       </c>
       <c r="C46">
-        <v>-0.02227195961082041</v>
+        <v>0.003564442324027586</v>
       </c>
       <c r="D46">
-        <v>0.0210213849331504</v>
+        <v>0.01194715168709755</v>
       </c>
       <c r="E46">
-        <v>0.02478590621940991</v>
+        <v>-0.02359830491018165</v>
       </c>
       <c r="F46">
-        <v>0.03294063037005353</v>
+        <v>0.0008750059623085669</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03999862522367321</v>
+        <v>-0.05156560031350699</v>
       </c>
       <c r="C47">
-        <v>0.01089578520853393</v>
+        <v>0.003177175647994824</v>
       </c>
       <c r="D47">
-        <v>-0.004386938504077954</v>
+        <v>0.01435597667047924</v>
       </c>
       <c r="E47">
-        <v>-0.004390037454326038</v>
+        <v>-0.02239890853561395</v>
       </c>
       <c r="F47">
-        <v>0.002689195089626729</v>
+        <v>0.04456364937186981</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03412294456914201</v>
+        <v>-0.04737644431112933</v>
       </c>
       <c r="C48">
-        <v>-0.002868895441382557</v>
+        <v>0.002644006918945476</v>
       </c>
       <c r="D48">
-        <v>0.008068065162907383</v>
+        <v>0.0494139065504331</v>
       </c>
       <c r="E48">
-        <v>-0.008299925603767098</v>
+        <v>0.004365954874673113</v>
       </c>
       <c r="F48">
-        <v>-0.002756833025693916</v>
+        <v>-0.01009487684946671</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.230376605060046</v>
+        <v>-0.2029120212057698</v>
       </c>
       <c r="C49">
-        <v>0.00401531833209383</v>
+        <v>0.01763849726233668</v>
       </c>
       <c r="D49">
-        <v>-0.04376680200110719</v>
+        <v>-0.009781395197309393</v>
       </c>
       <c r="E49">
-        <v>-0.01311331700633728</v>
+        <v>-0.03383421285550033</v>
       </c>
       <c r="F49">
-        <v>0.06741424325584469</v>
+        <v>-0.02949426558541607</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0390818072517975</v>
+        <v>-0.04810660536689411</v>
       </c>
       <c r="C50">
-        <v>0.01669189784555753</v>
+        <v>0.01096607127375452</v>
       </c>
       <c r="D50">
-        <v>-0.006700626274466806</v>
+        <v>0.02662441301937963</v>
       </c>
       <c r="E50">
-        <v>-0.005577871766415757</v>
+        <v>-0.02979167232460447</v>
       </c>
       <c r="F50">
-        <v>0.01204929783279013</v>
+        <v>-0.00852326298459294</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01073026930607456</v>
+        <v>-0.002128324963725351</v>
       </c>
       <c r="C51">
-        <v>-0.01489919664113239</v>
+        <v>0.0005389456687357459</v>
       </c>
       <c r="D51">
-        <v>0.01528816998197187</v>
+        <v>-0.002278417822291395</v>
       </c>
       <c r="E51">
-        <v>0.007339041228139792</v>
+        <v>7.882160012169104e-05</v>
       </c>
       <c r="F51">
-        <v>0.01374469715393203</v>
+        <v>-0.004676364190502143</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1070153024112418</v>
+        <v>-0.144880185902393</v>
       </c>
       <c r="C52">
-        <v>0.07755138164774324</v>
+        <v>0.01396847505034562</v>
       </c>
       <c r="D52">
-        <v>0.008851400216341352</v>
+        <v>0.05064217763458368</v>
       </c>
       <c r="E52">
-        <v>-0.008490355441168563</v>
+        <v>-0.0241675697392457</v>
       </c>
       <c r="F52">
-        <v>0.004326649064270893</v>
+        <v>-0.03420167516765481</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1597880911951595</v>
+        <v>-0.1739615290999883</v>
       </c>
       <c r="C53">
-        <v>0.03536254888628552</v>
+        <v>0.01686816014239014</v>
       </c>
       <c r="D53">
-        <v>0.00569712395697856</v>
+        <v>0.01102524484400131</v>
       </c>
       <c r="E53">
-        <v>0.02265489839991674</v>
+        <v>-0.035617727553496</v>
       </c>
       <c r="F53">
-        <v>0.02205752741544363</v>
+        <v>-0.06705954018525022</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0497776693571815</v>
+        <v>-0.02179911471825438</v>
       </c>
       <c r="C54">
-        <v>0.0195267108788513</v>
+        <v>0.01236667820562984</v>
       </c>
       <c r="D54">
-        <v>0.001766956430430487</v>
+        <v>0.03288277656472998</v>
       </c>
       <c r="E54">
-        <v>0.0284078751286359</v>
+        <v>-0.0150601661288234</v>
       </c>
       <c r="F54">
-        <v>0.001427223891318089</v>
+        <v>0.00554098436366593</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08239285175028899</v>
+        <v>-0.1142317353154815</v>
       </c>
       <c r="C55">
-        <v>0.02449217202793973</v>
+        <v>0.01546796566231125</v>
       </c>
       <c r="D55">
-        <v>0.05033227029656147</v>
+        <v>0.01081556038228489</v>
       </c>
       <c r="E55">
-        <v>-0.0212081106181002</v>
+        <v>-0.03068439944376448</v>
       </c>
       <c r="F55">
-        <v>0.01189075052885682</v>
+        <v>-0.04489214643954881</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1579537723815734</v>
+        <v>-0.1776040262133669</v>
       </c>
       <c r="C56">
-        <v>0.05299679182857205</v>
+        <v>0.01434196608216547</v>
       </c>
       <c r="D56">
-        <v>0.01654619890291557</v>
+        <v>0.007101828824772472</v>
       </c>
       <c r="E56">
-        <v>-0.005863525670827528</v>
+        <v>-0.03988470761815881</v>
       </c>
       <c r="F56">
-        <v>0.05379440594540698</v>
+        <v>-0.04313844223014839</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04690005761767403</v>
+        <v>-0.04637087849057966</v>
       </c>
       <c r="C58">
-        <v>-0.00556561078922022</v>
+        <v>0.001313114296694445</v>
       </c>
       <c r="D58">
-        <v>-0.0101588489331134</v>
+        <v>0.06638730396954505</v>
       </c>
       <c r="E58">
-        <v>0.05311488705584842</v>
+        <v>-0.02405784927549844</v>
       </c>
       <c r="F58">
-        <v>0.009957989384781162</v>
+        <v>0.04344230573695278</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.171881870984969</v>
+        <v>-0.1724580286367516</v>
       </c>
       <c r="C59">
-        <v>-0.2413413134114001</v>
+        <v>0.01749640265459294</v>
       </c>
       <c r="D59">
-        <v>0.0573594142104516</v>
+        <v>-0.2230532819965426</v>
       </c>
       <c r="E59">
-        <v>-0.05573010720129479</v>
+        <v>0.04972931070037838</v>
       </c>
       <c r="F59">
-        <v>0.01286192729907878</v>
+        <v>0.03270257506254164</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2789985738809213</v>
+        <v>-0.2357488559860611</v>
       </c>
       <c r="C60">
-        <v>0.1608019093485851</v>
+        <v>-0.004266582839008845</v>
       </c>
       <c r="D60">
-        <v>-0.04459330115164705</v>
+        <v>0.04843007097674708</v>
       </c>
       <c r="E60">
-        <v>-0.05659948627361575</v>
+        <v>-0.009393129849107042</v>
       </c>
       <c r="F60">
-        <v>0.1759315168048325</v>
+        <v>0.03136871199488715</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1155159504181584</v>
+        <v>-0.08309484262226523</v>
       </c>
       <c r="C61">
-        <v>0.06984847354852688</v>
+        <v>0.01262954223879422</v>
       </c>
       <c r="D61">
-        <v>0.03767078494051749</v>
+        <v>0.1146408507262977</v>
       </c>
       <c r="E61">
-        <v>-0.08066231111776202</v>
+        <v>-0.04224469395053551</v>
       </c>
       <c r="F61">
-        <v>0.03789271323004076</v>
+        <v>-0.01244727406745192</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1560109161921905</v>
+        <v>-0.1701328343063703</v>
       </c>
       <c r="C62">
-        <v>0.03725822154114335</v>
+        <v>0.01787842919231043</v>
       </c>
       <c r="D62">
-        <v>0.01896500768391331</v>
+        <v>0.01098062063358648</v>
       </c>
       <c r="E62">
-        <v>0.00580289712883568</v>
+        <v>-0.03631567015486922</v>
       </c>
       <c r="F62">
-        <v>0.03635220877153877</v>
+        <v>-0.02418461412206284</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03944946877266068</v>
+        <v>-0.04219620967577704</v>
       </c>
       <c r="C63">
-        <v>-0.008329195111957909</v>
+        <v>0.00275576911458898</v>
       </c>
       <c r="D63">
-        <v>0.01485799071378282</v>
+        <v>0.05195682028583234</v>
       </c>
       <c r="E63">
-        <v>-0.002089904016742217</v>
+        <v>-0.02224598802857291</v>
       </c>
       <c r="F63">
-        <v>-0.03707492808319784</v>
+        <v>-0.005630501073744754</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09359870728146887</v>
+        <v>-0.1116005754590651</v>
       </c>
       <c r="C64">
-        <v>0.01813899450397383</v>
+        <v>0.01117834186441492</v>
       </c>
       <c r="D64">
-        <v>-0.001658360976170237</v>
+        <v>0.04372699514690256</v>
       </c>
       <c r="E64">
-        <v>-0.007641974245025402</v>
+        <v>-0.0208186863143572</v>
       </c>
       <c r="F64">
-        <v>0.06024126323578958</v>
+        <v>-0.02520388774158499</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1159208787448248</v>
+        <v>-0.146183245137719</v>
       </c>
       <c r="C65">
-        <v>-0.008799945862765753</v>
+        <v>0.03134894873428244</v>
       </c>
       <c r="D65">
-        <v>0.01340127939138241</v>
+        <v>-0.04330141328054549</v>
       </c>
       <c r="E65">
-        <v>-0.01201195566516558</v>
+        <v>0.0003714478350219084</v>
       </c>
       <c r="F65">
-        <v>-0.06200745659394946</v>
+        <v>-0.04881152738385047</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1538627557615628</v>
+        <v>-0.1286695617676992</v>
       </c>
       <c r="C66">
-        <v>0.1353147910756656</v>
+        <v>0.01431842380541381</v>
       </c>
       <c r="D66">
-        <v>0.04570468545213924</v>
+        <v>0.1432883743592581</v>
       </c>
       <c r="E66">
-        <v>-0.112720540202006</v>
+        <v>-0.0692226079010934</v>
       </c>
       <c r="F66">
-        <v>0.03696585008230464</v>
+        <v>-0.02870841048857871</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0664111000240514</v>
+        <v>-0.06199451408577115</v>
       </c>
       <c r="C67">
-        <v>0.04009106726442347</v>
+        <v>0.003008939420230809</v>
       </c>
       <c r="D67">
-        <v>0.08256444361062548</v>
+        <v>0.0538317830145375</v>
       </c>
       <c r="E67">
-        <v>0.02292348721020687</v>
+        <v>-0.0176365189499024</v>
       </c>
       <c r="F67">
-        <v>0.01705149090482937</v>
+        <v>0.04144619556737088</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08952430769019544</v>
+        <v>-0.1170738939277237</v>
       </c>
       <c r="C68">
-        <v>-0.2745561332735725</v>
+        <v>0.02733768709597767</v>
       </c>
       <c r="D68">
-        <v>0.02913463026123008</v>
+        <v>-0.2612976527107638</v>
       </c>
       <c r="E68">
-        <v>-0.04977910058632496</v>
+        <v>0.08822581743960174</v>
       </c>
       <c r="F68">
-        <v>-0.02877108569738936</v>
+        <v>-0.03108129920822061</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03443493444572875</v>
+        <v>-0.03912751239540796</v>
       </c>
       <c r="C69">
-        <v>-0.001947942907234128</v>
+        <v>0.0009043951604298508</v>
       </c>
       <c r="D69">
-        <v>0.03266521970692167</v>
+        <v>0.0099055392131357</v>
       </c>
       <c r="E69">
-        <v>-0.001461172722052217</v>
+        <v>-0.02415837802092034</v>
       </c>
       <c r="F69">
-        <v>0.01326508754311273</v>
+        <v>0.01024217109272825</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02787943041297335</v>
+        <v>-0.06222453742641414</v>
       </c>
       <c r="C70">
-        <v>-0.008564786791122492</v>
+        <v>-0.02873265297929542</v>
       </c>
       <c r="D70">
-        <v>0.04277177600351346</v>
+        <v>0.02959489836898129</v>
       </c>
       <c r="E70">
-        <v>-0.04246883934400524</v>
+        <v>0.05047538862377462</v>
       </c>
       <c r="F70">
-        <v>0.02394400113395934</v>
+        <v>0.2711268065146795</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1035449800480403</v>
+        <v>-0.1363124886802256</v>
       </c>
       <c r="C71">
-        <v>-0.2908058914309739</v>
+        <v>0.03162986925877214</v>
       </c>
       <c r="D71">
-        <v>0.04546328847846512</v>
+        <v>-0.2763434731502121</v>
       </c>
       <c r="E71">
-        <v>-0.04285561131881599</v>
+        <v>0.09667504421601174</v>
       </c>
       <c r="F71">
-        <v>0.01431984962948552</v>
+        <v>-0.03713673422349001</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1403967363991676</v>
+        <v>-0.1411331558423924</v>
       </c>
       <c r="C72">
-        <v>-0.0200843132211574</v>
+        <v>0.02495310246211791</v>
       </c>
       <c r="D72">
-        <v>0.001773671019518018</v>
+        <v>0.004396923798367473</v>
       </c>
       <c r="E72">
-        <v>0.015275198659072</v>
+        <v>-0.04432357365719786</v>
       </c>
       <c r="F72">
-        <v>-0.002472920665647521</v>
+        <v>-0.02570835491425187</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2301639838176873</v>
+        <v>-0.2031017522009095</v>
       </c>
       <c r="C73">
-        <v>0.0479438464184833</v>
+        <v>0.01159227344482654</v>
       </c>
       <c r="D73">
-        <v>0.04706554465676296</v>
+        <v>0.0166753906886251</v>
       </c>
       <c r="E73">
-        <v>-0.05898295322689203</v>
+        <v>-0.06321836960718409</v>
       </c>
       <c r="F73">
-        <v>0.134045987837952</v>
+        <v>-0.03265495182354725</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1161075275341791</v>
+        <v>-0.09429544299215374</v>
       </c>
       <c r="C74">
-        <v>0.0445301576693327</v>
+        <v>0.01224050605225879</v>
       </c>
       <c r="D74">
-        <v>0.0176321160384894</v>
+        <v>0.02093001306801863</v>
       </c>
       <c r="E74">
-        <v>0.01261997990261691</v>
+        <v>-0.04867230449162613</v>
       </c>
       <c r="F74">
-        <v>0.01827757275862791</v>
+        <v>-0.04936120945832902</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1230890757663575</v>
+        <v>-0.1294275324404021</v>
       </c>
       <c r="C75">
-        <v>0.05172884753240543</v>
+        <v>0.02650053433975902</v>
       </c>
       <c r="D75">
-        <v>0.0028452635680947</v>
+        <v>0.03428064141383556</v>
       </c>
       <c r="E75">
-        <v>0.01255582184249428</v>
+        <v>-0.06053527784394316</v>
       </c>
       <c r="F75">
-        <v>-0.003216404445016773</v>
+        <v>-0.01366113113421303</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01786819442494707</v>
+        <v>-0.003345885587221739</v>
       </c>
       <c r="C76">
-        <v>-0.01531091332289878</v>
+        <v>0.000800185016677803</v>
       </c>
       <c r="D76">
-        <v>0.01082626190900627</v>
+        <v>-0.002455088589518896</v>
       </c>
       <c r="E76">
-        <v>-0.007355135988557034</v>
+        <v>-0.0004914239885985016</v>
       </c>
       <c r="F76">
-        <v>0.02022623574792809</v>
+        <v>-0.003909041234463252</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07243442037490841</v>
+        <v>-0.07841578011087538</v>
       </c>
       <c r="C77">
-        <v>0.1139009241494567</v>
+        <v>0.008821076790782945</v>
       </c>
       <c r="D77">
-        <v>-0.01505865251242035</v>
+        <v>0.1176125118995956</v>
       </c>
       <c r="E77">
-        <v>0.002710421780829979</v>
+        <v>-0.03942976637470653</v>
       </c>
       <c r="F77">
-        <v>0.06818729496417605</v>
+        <v>-0.03050774091346289</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1228000502999226</v>
+        <v>-0.1039880101253454</v>
       </c>
       <c r="C78">
-        <v>0.0293725218658505</v>
+        <v>0.04005333136256575</v>
       </c>
       <c r="D78">
-        <v>0.08177499635384657</v>
+        <v>0.1174842312656887</v>
       </c>
       <c r="E78">
-        <v>0.3282333871185556</v>
+        <v>-0.08334703328722391</v>
       </c>
       <c r="F78">
-        <v>-0.2580235586989748</v>
+        <v>-0.06386171221991559</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1337665858688271</v>
+        <v>-0.1640004292779187</v>
       </c>
       <c r="C79">
-        <v>0.04139674703597294</v>
+        <v>0.02069774767437509</v>
       </c>
       <c r="D79">
-        <v>-0.01854100452428333</v>
+        <v>0.01907929761142526</v>
       </c>
       <c r="E79">
-        <v>0.006443167044901651</v>
+        <v>-0.04950423243570417</v>
       </c>
       <c r="F79">
-        <v>0.03561868771144874</v>
+        <v>-0.004880329548777501</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08110575140602903</v>
+        <v>-0.08072202931251025</v>
       </c>
       <c r="C80">
-        <v>0.08761699411115316</v>
+        <v>-0.000983293693370685</v>
       </c>
       <c r="D80">
-        <v>0.07120821568184338</v>
+        <v>0.05735580690092117</v>
       </c>
       <c r="E80">
-        <v>-0.0348905622980674</v>
+        <v>-0.03597682539738765</v>
       </c>
       <c r="F80">
-        <v>-0.0321326915287822</v>
+        <v>0.01755648617730666</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1427552924936061</v>
+        <v>-0.1231807890533893</v>
       </c>
       <c r="C81">
-        <v>0.0624875437928979</v>
+        <v>0.0302942399842042</v>
       </c>
       <c r="D81">
-        <v>0.008096966953103047</v>
+        <v>0.01867163944620324</v>
       </c>
       <c r="E81">
-        <v>0.01289514895440742</v>
+        <v>-0.0597399931412525</v>
       </c>
       <c r="F81">
-        <v>0.01922113044873183</v>
+        <v>-0.00658047746414266</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1630421376677799</v>
+        <v>-0.1641056741633917</v>
       </c>
       <c r="C82">
-        <v>0.05371470134129235</v>
+        <v>0.02246473506724194</v>
       </c>
       <c r="D82">
-        <v>0.02698068724815857</v>
+        <v>0.01281524127922997</v>
       </c>
       <c r="E82">
-        <v>-0.02361469699107958</v>
+        <v>-0.03478377161701558</v>
       </c>
       <c r="F82">
-        <v>0.04202109070370066</v>
+        <v>-0.06855114697906461</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.0810156149035426</v>
+        <v>-0.06232660146421151</v>
       </c>
       <c r="C83">
-        <v>0.07126265328292353</v>
+        <v>0.003069765792685308</v>
       </c>
       <c r="D83">
-        <v>-0.02043611699563747</v>
+        <v>0.05109598526912278</v>
       </c>
       <c r="E83">
-        <v>0.03578453105774246</v>
+        <v>-0.005850274091097534</v>
       </c>
       <c r="F83">
-        <v>-0.06402587131161769</v>
+        <v>0.04379797011737682</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07282055668818432</v>
+        <v>-0.05895958328528222</v>
       </c>
       <c r="C84">
-        <v>0.001607342492662633</v>
+        <v>0.01067781887973396</v>
       </c>
       <c r="D84">
-        <v>-0.002567280427291481</v>
+        <v>0.06453329250371896</v>
       </c>
       <c r="E84">
-        <v>-0.08027761323178702</v>
+        <v>-0.003821390773260295</v>
       </c>
       <c r="F84">
-        <v>0.05027702823954536</v>
+        <v>-0.01069755999368297</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1256404874981424</v>
+        <v>-0.1388439224121587</v>
       </c>
       <c r="C85">
-        <v>0.03094054697484972</v>
+        <v>0.02627193909089786</v>
       </c>
       <c r="D85">
-        <v>0.008872828299172637</v>
+        <v>0.01488808022493681</v>
       </c>
       <c r="E85">
-        <v>0.005247831292810898</v>
+        <v>-0.04140782071204785</v>
       </c>
       <c r="F85">
-        <v>0.0408929604397034</v>
+        <v>-0.04616471803761227</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1487929440240286</v>
+        <v>-0.09437530077457895</v>
       </c>
       <c r="C86">
-        <v>-0.0226981137554849</v>
+        <v>-0.007196712590475453</v>
       </c>
       <c r="D86">
-        <v>-0.9416885553393841</v>
+        <v>0.02306413915638236</v>
       </c>
       <c r="E86">
-        <v>0.05268456134748971</v>
+        <v>-0.1517715026741804</v>
       </c>
       <c r="F86">
-        <v>-0.06522769221673211</v>
+        <v>0.8739111923119189</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1168037035658809</v>
+        <v>-0.09589707487443765</v>
       </c>
       <c r="C87">
-        <v>0.1025845777683689</v>
+        <v>0.02189874860446705</v>
       </c>
       <c r="D87">
-        <v>0.01468805177345143</v>
+        <v>0.09049841840003051</v>
       </c>
       <c r="E87">
-        <v>0.01115919110465399</v>
+        <v>0.05388703989846001</v>
       </c>
       <c r="F87">
-        <v>0.05611798198205416</v>
+        <v>-0.08159202856618246</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05096950105552119</v>
+        <v>-0.0610447954477804</v>
       </c>
       <c r="C88">
-        <v>0.01771673956423633</v>
+        <v>0.002418253642003314</v>
       </c>
       <c r="D88">
-        <v>0.0204049182274667</v>
+        <v>0.05402503247292093</v>
       </c>
       <c r="E88">
-        <v>-0.05517943464415631</v>
+        <v>-0.02709895412286867</v>
       </c>
       <c r="F88">
-        <v>0.007351532567405897</v>
+        <v>-0.009571336601756361</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1574941472482442</v>
+        <v>-0.1360137276536488</v>
       </c>
       <c r="C89">
-        <v>-0.3559535723409382</v>
+        <v>0.009744605009146257</v>
       </c>
       <c r="D89">
-        <v>0.0454367355483024</v>
+        <v>-0.2540361702572982</v>
       </c>
       <c r="E89">
-        <v>0.02473742669881883</v>
+        <v>0.09258453755225374</v>
       </c>
       <c r="F89">
-        <v>0.01848331998219566</v>
+        <v>-0.01486921168447964</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1155101803736938</v>
+        <v>-0.1476858986965817</v>
       </c>
       <c r="C90">
-        <v>-0.2857738855562865</v>
+        <v>0.02738783244859731</v>
       </c>
       <c r="D90">
-        <v>0.03342926102912569</v>
+        <v>-0.2664933499571675</v>
       </c>
       <c r="E90">
-        <v>-0.0597513899841734</v>
+        <v>0.1092474324396509</v>
       </c>
       <c r="F90">
-        <v>0.0145687970982707</v>
+        <v>-0.01972013070401875</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08710731265095045</v>
+        <v>-0.1194845370576378</v>
       </c>
       <c r="C91">
-        <v>0.0371506375916407</v>
+        <v>0.0169136180459999</v>
       </c>
       <c r="D91">
-        <v>-0.01626750018618415</v>
+        <v>-0.008302444897603947</v>
       </c>
       <c r="E91">
-        <v>0.003625294164739169</v>
+        <v>-0.05768074268889877</v>
       </c>
       <c r="F91">
-        <v>0.03374830502905156</v>
+        <v>0.01631465760950275</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1321345376945839</v>
+        <v>-0.1502140867762515</v>
       </c>
       <c r="C92">
-        <v>-0.3189798953726719</v>
+        <v>0.01910300272037733</v>
       </c>
       <c r="D92">
-        <v>0.03863192560485795</v>
+        <v>-0.2939545253653001</v>
       </c>
       <c r="E92">
-        <v>-0.001066384563151445</v>
+        <v>0.1039803779089267</v>
       </c>
       <c r="F92">
-        <v>-0.01014223882113386</v>
+        <v>-0.01356125729197481</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1202940933171345</v>
+        <v>-0.1518919503225849</v>
       </c>
       <c r="C93">
-        <v>-0.3225228441467953</v>
+        <v>0.02336684204818205</v>
       </c>
       <c r="D93">
-        <v>0.02042002836843357</v>
+        <v>-0.2659950045122205</v>
       </c>
       <c r="E93">
-        <v>-0.09020759734647744</v>
+        <v>0.07671153022616735</v>
       </c>
       <c r="F93">
-        <v>0.02404734130071606</v>
+        <v>-0.01447678491719517</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1472034025829282</v>
+        <v>-0.132640977992927</v>
       </c>
       <c r="C94">
-        <v>0.05083050392544684</v>
+        <v>0.02369844311023596</v>
       </c>
       <c r="D94">
-        <v>0.04852776790390907</v>
+        <v>0.04588497817776778</v>
       </c>
       <c r="E94">
-        <v>0.02875748788866926</v>
+        <v>-0.06126765952051862</v>
       </c>
       <c r="F94">
-        <v>0.03342204406854515</v>
+        <v>-0.03164440253256225</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1142450826952707</v>
+        <v>-0.1259702258367404</v>
       </c>
       <c r="C95">
-        <v>0.03619569943954522</v>
+        <v>0.004720906285437391</v>
       </c>
       <c r="D95">
-        <v>0.02150370791178182</v>
+        <v>0.08994659744940307</v>
       </c>
       <c r="E95">
-        <v>0.02555758879325286</v>
+        <v>-0.04511805808550912</v>
       </c>
       <c r="F95">
-        <v>0.03582592368279063</v>
+        <v>0.01396741637787656</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01465777357549151</v>
+        <v>-0.09894313887501073</v>
       </c>
       <c r="C96">
-        <v>-0.003831014765284864</v>
+        <v>-0.9887741053384111</v>
       </c>
       <c r="D96">
-        <v>-0.002706265007349904</v>
+        <v>-0.03526694431451832</v>
       </c>
       <c r="E96">
-        <v>0.009625207250942082</v>
+        <v>-0.0580101664483178</v>
       </c>
       <c r="F96">
-        <v>-0.0001226833333326713</v>
+        <v>-0.04607385484645082</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1766763444774687</v>
+        <v>-0.1901643492013721</v>
       </c>
       <c r="C97">
-        <v>0.03309802907836515</v>
+        <v>-0.009529102165523494</v>
       </c>
       <c r="D97">
-        <v>0.0473646560906571</v>
+        <v>-0.01134069922592241</v>
       </c>
       <c r="E97">
-        <v>0.09170091623887328</v>
+        <v>-0.01381692403341793</v>
       </c>
       <c r="F97">
-        <v>-0.845407990365851</v>
+        <v>0.1486373356435131</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2402454926800824</v>
+        <v>-0.2054892915893518</v>
       </c>
       <c r="C98">
-        <v>-0.008491129237420821</v>
+        <v>0.007123868567941984</v>
       </c>
       <c r="D98">
-        <v>-0.04970729735051619</v>
+        <v>0.009287697549289764</v>
       </c>
       <c r="E98">
-        <v>0.07487587928325032</v>
+        <v>0.09815835072535241</v>
       </c>
       <c r="F98">
-        <v>-0.02439286697348056</v>
+        <v>0.110854010907686</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04430348426924657</v>
+        <v>-0.05534737761313587</v>
       </c>
       <c r="C99">
-        <v>-0.007465244755748928</v>
+        <v>-0.004120583684972025</v>
       </c>
       <c r="D99">
-        <v>0.03889842488651067</v>
+        <v>0.03620809109050122</v>
       </c>
       <c r="E99">
-        <v>0.02227214949309241</v>
+        <v>-0.02686166061944507</v>
       </c>
       <c r="F99">
-        <v>0.02163757481496579</v>
+        <v>-0.002918167287186706</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.03503594215821669</v>
+        <v>-0.1222685085091824</v>
       </c>
       <c r="C100">
-        <v>0.1396427092532586</v>
+        <v>-0.05205040261485731</v>
       </c>
       <c r="D100">
-        <v>0.1668402150839305</v>
+        <v>0.3498457591705446</v>
       </c>
       <c r="E100">
-        <v>-0.09674057044094475</v>
+        <v>0.8930831980041495</v>
       </c>
       <c r="F100">
-        <v>-0.2050766054587082</v>
+        <v>0.07394607216827094</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02886238555671315</v>
+        <v>-0.02705544404482984</v>
       </c>
       <c r="C101">
-        <v>0.005042452536546673</v>
+        <v>0.008563780837835891</v>
       </c>
       <c r="D101">
-        <v>0.002290800985736091</v>
+        <v>0.02970420503000021</v>
       </c>
       <c r="E101">
-        <v>-0.0342014000026992</v>
+        <v>-0.01146940204137616</v>
       </c>
       <c r="F101">
-        <v>0.03115100108800361</v>
+        <v>0.01678904434677781</v>
       </c>
     </row>
     <row r="102" spans="1:6">
